--- a/library/export_dtr.xlsx
+++ b/library/export_dtr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\FAS\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -199,6 +199,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -207,16 +216,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -527,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="58" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="58" workbookViewId="0">
       <selection activeCell="A46" sqref="A46:A53"/>
     </sheetView>
   </sheetViews>
@@ -542,46 +542,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -595,15 +595,15 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -615,17 +615,17 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -634,11 +634,11 @@
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -650,24 +650,24 @@
       <c r="G10" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
@@ -745,12 +745,8 @@
       <c r="A53" s="9"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="jGhOMum3exHnhjVCNL2JKL0KhAewoOC1pMfefBf5aaBQjnI3Ce7GbqdNVWalGx015xoNIQyKJvUhXAlOkFStRA==" saltValue="UyLK6cYxjafbrOp3oyWTWg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="12">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:G4"/>
@@ -758,6 +754,11 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="256" scale="82" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/library/export_dtr.xlsx
+++ b/library/export_dtr.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C69EE7-8892-4B45-A4C2-56F55ECC064F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -165,13 +166,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -186,44 +239,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel Built-in Normal" xfId="2"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -314,6 +377,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -349,6 +429,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,16 +621,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="58" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:A53"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="5" width="14" customWidth="1"/>
@@ -541,7 +638,7 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -552,7 +649,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -572,7 +669,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
@@ -594,7 +691,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -614,31 +711,31 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -650,102 +747,197 @@
       <c r="G10" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+    </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
+      <c r="A47" s="20"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
+      <c r="A48" s="20"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
+      <c r="A49" s="20"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
+      <c r="A50" s="20"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
+      <c r="A51" s="20"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
+      <c r="A52" s="20"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
+      <c r="A53" s="20"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jGhOMum3exHnhjVCNL2JKL0KhAewoOC1pMfefBf5aaBQjnI3Ce7GbqdNVWalGx015xoNIQyKJvUhXAlOkFStRA==" saltValue="UyLK6cYxjafbrOp3oyWTWg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="12">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
